--- a/doc/excel/模拟创建学生信息.xlsx
+++ b/doc/excel/模拟创建学生信息.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B36B1B-3268-4626-A9A0-8862D798D45E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FF0DE1-C4F9-44D0-8CFF-55A51C647FC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
-    <t>classId</t>
-  </si>
-  <si>
     <t>11864CIMA1</t>
   </si>
   <si>
@@ -35,6 +32,10 @@
   </si>
   <si>
     <t>studentNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +392,7 @@
   <dimension ref="A1:B639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -402,10 +403,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2714,7 +2715,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B290">
         <v>40</v>
@@ -2850,7 +2851,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B307">
         <v>40</v>
@@ -2946,7 +2947,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B319">
         <v>40</v>
@@ -3082,7 +3083,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B336">
         <v>40</v>
@@ -4258,7 +4259,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B483">
         <v>15</v>
@@ -4362,7 +4363,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B496">
         <v>15</v>
@@ -4594,7 +4595,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B525">
         <v>15</v>
@@ -4666,7 +4667,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B534">
         <v>15</v>
@@ -4674,7 +4675,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B535">
         <v>15</v>
@@ -4970,7 +4971,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B572">
         <v>15</v>
@@ -4978,7 +4979,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B573">
         <v>15</v>
@@ -4986,7 +4987,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B574">
         <v>15</v>
